--- a/UCS.xlsx
+++ b/UCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCS Config from Excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0738FC71-E5C6-46D3-B258-6BDAB760B70F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58579056-0953-4F0C-A021-028F25648180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26670" yWindow="2430" windowWidth="18030" windowHeight="17475" tabRatio="813" activeTab="2" xr2:uid="{81D9D331-250E-454C-8FAE-FE15377CDF33}"/>
+    <workbookView xWindow="4224" yWindow="4224" windowWidth="34560" windowHeight="18684" tabRatio="813" xr2:uid="{81D9D331-250E-454C-8FAE-FE15377CDF33}"/>
   </bookViews>
   <sheets>
     <sheet name="vlantemp" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="MaintPol" sheetId="4" r:id="rId5"/>
     <sheet name="pVNICs" sheetId="8" r:id="rId6"/>
     <sheet name="sVNICs" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -699,16 +698,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93264FD-8D4C-41A7-9BFA-B255D55057D1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -719,7 +718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -741,17 +740,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -771,7 +770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -791,7 +790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -811,7 +810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -831,7 +830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -851,7 +850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -871,7 +870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -891,7 +890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -911,7 +910,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -931,7 +930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -951,7 +950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -971,7 +970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -991,7 +990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1011,7 +1010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1051,7 +1050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1091,7 +1090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1171,7 +1170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1202,16 +1201,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BD0594-3C90-4D37-919C-2504CFDC0485}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>40</v>
       </c>
@@ -1267,7 +1266,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B37">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B37">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1281,16 +1280,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1307,7 +1306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1352,17 +1351,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1402,7 +1401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1435,19 +1434,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1663,17 +1662,17 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -1816,31 +1815,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B176FCEB-2491-4C20-8683-342F13F9F717}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>